--- a/biology/Médecine/Liste_des_maladies_animales_à_déclaration_obligatoire_en_France/Liste_des_maladies_animales_à_déclaration_obligatoire_en_France.xlsx
+++ b/biology/Médecine/Liste_des_maladies_animales_à_déclaration_obligatoire_en_France/Liste_des_maladies_animales_à_déclaration_obligatoire_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_maladies_animales_%C3%A0_d%C3%A9claration_obligatoire_en_France</t>
+          <t>Liste_des_maladies_animales_à_déclaration_obligatoire_en_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, la liste des maladies animales à déclaration obligatoire est définie dans le code rural et contient les maladies réputées contagieuses (MRC). Celles-ci sont soumises à une réglementation particulière (en raison de leur impact sur la santé publique, socio-économique, sanitaire) prévoyant une intervention adaptée immédiate de l'État lors de toute suspicion de l'une d'entre elles afin d'empêcher leur diffusion et d'assurer leur éradication.
-Les maladies réputées contagieuses figurent dans une nomenclature fixée par décret[1] (article L. 223-2[2] du code rural). Elles sont soumises à déclaration obligatoire et donnent lieu à l'application de mesures de police sanitaire. La liste de ces MRC évolue en fonction de la réglementation européenne et des listes A ou B de l'OIE (listes réunissant les principales maladies contagieuses susceptibles d'entraîner des restrictions commerciales lors d'échanges internationaux).
+Les maladies réputées contagieuses figurent dans une nomenclature fixée par décret (article L. 223-2 du code rural). Elles sont soumises à déclaration obligatoire et donnent lieu à l'application de mesures de police sanitaire. La liste de ces MRC évolue en fonction de la réglementation européenne et des listes A ou B de l'OIE (listes réunissant les principales maladies contagieuses susceptibles d'entraîner des restrictions commerciales lors d'échanges internationaux).
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_maladies_animales_%C3%A0_d%C3%A9claration_obligatoire_en_France</t>
+          <t>Liste_des_maladies_animales_à_déclaration_obligatoire_en_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Liste des maladies à déclaration obligatoire en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Aethina tumida
 Anaplasmose bovine
